--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74049FAA-D879-104D-83C1-2AD998DF84C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA712D-BE88-B849-91E6-441875B62C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37640" yWindow="-500" windowWidth="28040" windowHeight="16440" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Cusco</t>
   </si>
@@ -215,6 +215,12 @@
   <si>
     <t>Cost for Opening</t>
   </si>
+  <si>
+    <t>Backup Coverage</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -223,8 +229,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -294,12 +300,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -359,7 +371,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,44 +380,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -742,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
-  <dimension ref="A1:AV104"/>
+  <dimension ref="A1:AV145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2481,7 +2493,7 @@
       <c r="AV39" s="3"/>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6420,7 +6432,7 @@
       <c r="B93" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="13" t="s">
@@ -6459,7 +6471,7 @@
       <c r="A96" s="18">
         <v>160008</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C96" s="20">
@@ -6469,7 +6481,7 @@
         <v>188500</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <v>160019</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>198200</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <v>160020</v>
       </c>
@@ -6497,7 +6509,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>160024</v>
       </c>
@@ -6511,7 +6523,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>160025</v>
       </c>
@@ -6525,11 +6537,11 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>160029</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C101" s="23">
@@ -6539,22 +6551,22 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26" t="s">
+    <row r="102" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="26">
         <v>744495</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D102" s="27">
         <f>SUM(D94:D101)</f>
         <v>1272051</v>
       </c>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>49</v>
       </c>
@@ -6562,6 +6574,980 @@
         <f>D102/C102</f>
         <v>1.7086091914653556</v>
       </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2">
+        <v>160002</v>
+      </c>
+      <c r="C109" s="2">
+        <v>160004</v>
+      </c>
+      <c r="D109" s="2">
+        <v>160006</v>
+      </c>
+      <c r="E109" s="2">
+        <v>160007</v>
+      </c>
+      <c r="F109" s="2">
+        <v>160009</v>
+      </c>
+      <c r="G109" s="2">
+        <v>160012</v>
+      </c>
+      <c r="H109" s="2">
+        <v>160013</v>
+      </c>
+      <c r="I109" s="2">
+        <v>160014</v>
+      </c>
+      <c r="J109" s="2">
+        <v>160016</v>
+      </c>
+      <c r="K109" s="2">
+        <v>160017</v>
+      </c>
+      <c r="L109" s="2">
+        <v>160022</v>
+      </c>
+      <c r="M109" s="2">
+        <v>160023</v>
+      </c>
+      <c r="N109" s="2">
+        <v>160026</v>
+      </c>
+      <c r="O109" s="2">
+        <v>160027</v>
+      </c>
+      <c r="P109" s="2">
+        <v>160028</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>160030</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>160001</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>160003</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>160005</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>160008</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>160010</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>160011</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0</v>
+      </c>
+      <c r="N115" s="3">
+        <v>0</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>160015</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0</v>
+      </c>
+      <c r="N116" s="3">
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>160018</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0</v>
+      </c>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0</v>
+      </c>
+      <c r="P117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>160019</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0</v>
+      </c>
+      <c r="P118" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>160020</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0</v>
+      </c>
+      <c r="N119" s="3">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3">
+        <v>1</v>
+      </c>
+      <c r="P119" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>160021</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
+      </c>
+      <c r="L120" s="3">
+        <v>0</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0</v>
+      </c>
+      <c r="N120" s="3">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0</v>
+      </c>
+      <c r="P120" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>160024</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
+      </c>
+      <c r="L121" s="3">
+        <v>0</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0</v>
+      </c>
+      <c r="N121" s="3">
+        <v>0</v>
+      </c>
+      <c r="O121" s="3">
+        <v>0</v>
+      </c>
+      <c r="P121" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>160025</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0</v>
+      </c>
+      <c r="N122" s="3">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3">
+        <v>0</v>
+      </c>
+      <c r="P122" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>160029</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
+      </c>
+      <c r="L123" s="3">
+        <v>0</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0</v>
+      </c>
+      <c r="N123" s="3">
+        <v>0</v>
+      </c>
+      <c r="O123" s="3">
+        <v>1</v>
+      </c>
+      <c r="P123" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <f>IF(SUM(B110:B123)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:Q124" si="5">IF(SUM(C110:C123)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="5">
+        <v>19500</v>
+      </c>
+      <c r="C125" s="5">
+        <v>22000</v>
+      </c>
+      <c r="D125" s="5">
+        <v>18000</v>
+      </c>
+      <c r="E125" s="5">
+        <v>24500</v>
+      </c>
+      <c r="F125" s="5">
+        <v>7500</v>
+      </c>
+      <c r="G125" s="5">
+        <v>16800</v>
+      </c>
+      <c r="H125" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I125" s="5">
+        <v>15500</v>
+      </c>
+      <c r="J125" s="5">
+        <v>17900</v>
+      </c>
+      <c r="K125" s="5">
+        <v>20200</v>
+      </c>
+      <c r="L125" s="5">
+        <v>143000</v>
+      </c>
+      <c r="M125" s="5">
+        <v>12000</v>
+      </c>
+      <c r="N125" s="5">
+        <v>16030</v>
+      </c>
+      <c r="O125" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P125" s="5">
+        <v>11000</v>
+      </c>
+      <c r="Q125" s="5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="6">
+        <f>SUMPRODUCT(B124:Q124,B125:Q125)</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E145" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA712D-BE88-B849-91E6-441875B62C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A1B59-A7C9-7249-B57E-5B07725E5A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37640" yWindow="-500" windowWidth="28040" windowHeight="16440" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="28040" windowHeight="16440" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
   <dimension ref="A1:AV145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A1B59-A7C9-7249-B57E-5B07725E5A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315340E-91D3-E14F-BF80-CB7CEEB98191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="28040" windowHeight="16440" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="41240" yWindow="-1400" windowWidth="24020" windowHeight="17340" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
   <dimension ref="A1:AV145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
       <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
@@ -766,8 +766,9 @@
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="61.83203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18.33203125" customWidth="1"/>
   </cols>
@@ -6481,7 +6482,7 @@
         <v>188500</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <v>160019</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>198200</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <v>160020</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>160024</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>160025</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>160029</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="25" t="s">
         <v>45</v>
@@ -6565,8 +6566,8 @@
       </c>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>49</v>
       </c>
@@ -6575,12 +6576,19 @@
         <v>1.7086091914653556</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W106" s="3"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W108" s="3"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2">
         <v>160002</v>
@@ -6630,8 +6638,9 @@
       <c r="Q109" s="2">
         <v>160030</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>160001</v>
       </c>
@@ -6683,8 +6692,9 @@
       <c r="Q110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>160003</v>
       </c>
@@ -6736,8 +6746,9 @@
       <c r="Q111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>160005</v>
       </c>
@@ -6789,8 +6800,9 @@
       <c r="Q112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W112" s="3"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>160008</v>
       </c>
@@ -6842,8 +6854,9 @@
       <c r="Q113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>160010</v>
       </c>
@@ -6895,8 +6908,9 @@
       <c r="Q114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W114" s="3"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>160011</v>
       </c>
@@ -6948,8 +6962,9 @@
       <c r="Q115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W115" s="3"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>160015</v>
       </c>
@@ -7001,8 +7016,9 @@
       <c r="Q116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W116" s="3"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>160018</v>
       </c>
@@ -7054,8 +7070,9 @@
       <c r="Q117" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W117" s="3"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>160019</v>
       </c>
@@ -7107,8 +7124,9 @@
       <c r="Q118" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W118" s="3"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>160020</v>
       </c>
@@ -7160,8 +7178,9 @@
       <c r="Q119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W119" s="3"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>160021</v>
       </c>
@@ -7213,8 +7232,9 @@
       <c r="Q120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W120" s="3"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>160024</v>
       </c>
@@ -7266,8 +7286,9 @@
       <c r="Q121" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W121" s="3"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>160025</v>
       </c>
@@ -7320,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>160029</v>
       </c>
@@ -7373,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B124">
         <f>IF(SUM(B110:B123)&gt;=1, 1, 0)</f>
         <v>0</v>
@@ -7439,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -7453,52 +7474,52 @@
         <v>18000</v>
       </c>
       <c r="E125" s="5">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="F125" s="5">
-        <v>7500</v>
+        <v>18500</v>
       </c>
       <c r="G125" s="5">
-        <v>16800</v>
+        <v>18800</v>
       </c>
       <c r="H125" s="5">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I125" s="5">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="J125" s="5">
-        <v>17900</v>
+        <v>18900</v>
       </c>
       <c r="K125" s="5">
         <v>20200</v>
       </c>
       <c r="L125" s="5">
-        <v>143000</v>
+        <v>19300</v>
       </c>
       <c r="M125" s="5">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N125" s="5">
-        <v>16030</v>
+        <v>20030</v>
       </c>
       <c r="O125" s="5">
-        <v>9800</v>
+        <v>19800</v>
       </c>
       <c r="P125" s="5">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="Q125" s="5">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>53</v>
       </c>
       <c r="B126" s="6">
         <f>SUMPRODUCT(B124:Q124,B125:Q125)</f>
-        <v>24500</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315340E-91D3-E14F-BF80-CB7CEEB98191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB77B91-550A-AB47-9858-EC1D6DA33B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41240" yWindow="-1400" windowWidth="24020" windowHeight="17340" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="37000" yWindow="-680" windowWidth="24020" windowHeight="17340" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
   <dimension ref="A1:AV145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
       <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB77B91-550A-AB47-9858-EC1D6DA33B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF9556-C00F-8045-95DD-5C26E033E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="-680" windowWidth="24020" windowHeight="17340" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="2560" yWindow="840" windowWidth="24020" windowHeight="15660" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>Cusco</t>
   </si>
@@ -221,6 +221,9 @@
   <si>
     <t>Total Cost</t>
   </si>
+  <si>
+    <t>Coverage</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +303,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +364,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,6 +427,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -756,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
   <dimension ref="A1:AV145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6638,10 +6649,13 @@
       <c r="Q109" s="2">
         <v>160030</v>
       </c>
+      <c r="R109" t="s">
+        <v>54</v>
+      </c>
       <c r="W109" s="3"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="A110" s="32">
         <v>160001</v>
       </c>
       <c r="B110" s="3">
@@ -6654,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -6692,10 +6706,14 @@
       <c r="Q110" s="3">
         <v>0</v>
       </c>
+      <c r="R110">
+        <f>SUM(B110:Q110)</f>
+        <v>1</v>
+      </c>
       <c r="W110" s="3"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+      <c r="A111" s="32">
         <v>160003</v>
       </c>
       <c r="B111" s="3">
@@ -6708,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -6745,6 +6763,10 @@
       </c>
       <c r="Q111" s="3">
         <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" ref="R111:R124" si="5">SUM(B111:Q111)</f>
+        <v>1</v>
       </c>
       <c r="W111" s="3"/>
     </row>
@@ -6800,10 +6822,14 @@
       <c r="Q112" s="3">
         <v>0</v>
       </c>
+      <c r="R112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W112" s="3"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+      <c r="A113" s="32">
         <v>160008</v>
       </c>
       <c r="B113" s="3">
@@ -6819,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -6849,10 +6875,14 @@
         <v>0</v>
       </c>
       <c r="P113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="3">
         <v>0</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W113" s="3"/>
     </row>
@@ -6908,6 +6938,10 @@
       <c r="Q114" s="3">
         <v>0</v>
       </c>
+      <c r="R114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W114" s="3"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
@@ -6962,6 +6996,10 @@
       <c r="Q115" s="3">
         <v>0</v>
       </c>
+      <c r="R115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W115" s="3"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
@@ -7016,6 +7054,10 @@
       <c r="Q116" s="3">
         <v>0</v>
       </c>
+      <c r="R116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W116" s="3"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
@@ -7070,10 +7112,14 @@
       <c r="Q117" s="3">
         <v>0</v>
       </c>
+      <c r="R117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W117" s="3"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+      <c r="A118" s="32">
         <v>160019</v>
       </c>
       <c r="B118" s="3">
@@ -7104,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="3">
         <v>0</v>
@@ -7122,12 +7168,16 @@
         <v>0</v>
       </c>
       <c r="Q118" s="3">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W118" s="3"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+      <c r="A119" s="32">
         <v>160020</v>
       </c>
       <c r="B119" s="3">
@@ -7158,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="3">
         <v>0</v>
@@ -7170,13 +7220,17 @@
         <v>0</v>
       </c>
       <c r="O119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" s="3">
         <v>0</v>
       </c>
       <c r="Q119" s="3">
         <v>0</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W119" s="3"/>
     </row>
@@ -7232,10 +7286,14 @@
       <c r="Q120" s="3">
         <v>0</v>
       </c>
+      <c r="R120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W120" s="3"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+      <c r="A121" s="32">
         <v>160024</v>
       </c>
       <c r="B121" s="3">
@@ -7281,15 +7339,19 @@
         <v>0</v>
       </c>
       <c r="P121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121" s="3">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W121" s="3"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+      <c r="A122" s="32">
         <v>160025</v>
       </c>
       <c r="B122" s="3">
@@ -7320,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="3">
         <v>0</v>
@@ -7338,11 +7400,15 @@
         <v>0</v>
       </c>
       <c r="Q122" s="3">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+      <c r="A123" s="32">
         <v>160029</v>
       </c>
       <c r="B123" s="3">
@@ -7385,13 +7451,17 @@
         <v>0</v>
       </c>
       <c r="O123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" s="3">
         <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
@@ -7400,64 +7470,64 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:Q124" si="5">IF(SUM(C110:C123)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="C124:Q124" si="6">IF(SUM(C110:C123)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="D124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O124">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
@@ -7465,61 +7535,61 @@
         <v>46</v>
       </c>
       <c r="B125" s="5">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="C125" s="5">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="D125" s="5">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="E125" s="5">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="F125" s="5">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="G125" s="5">
-        <v>18800</v>
+        <v>20500</v>
       </c>
       <c r="H125" s="5">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="I125" s="5">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="J125" s="5">
-        <v>18900</v>
+        <v>20500</v>
       </c>
       <c r="K125" s="5">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="L125" s="5">
-        <v>19300</v>
+        <v>20500</v>
       </c>
       <c r="M125" s="5">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="N125" s="5">
-        <v>20030</v>
+        <v>20500</v>
       </c>
       <c r="O125" s="5">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="P125" s="5">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q125" s="5">
-        <v>19200</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>53</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="33">
         <f>SUMPRODUCT(B124:Q124,B125:Q125)</f>
-        <v>57500</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF9556-C00F-8045-95DD-5C26E033E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3CD9B3-FDB2-5A47-A6D8-8A4860FAF268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="840" windowWidth="24020" windowHeight="15660" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="36020" yWindow="0" windowWidth="24020" windowHeight="15660" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>Cusco</t>
   </si>
@@ -224,6 +224,12 @@
   <si>
     <t>Coverage</t>
   </si>
+  <si>
+    <t>BackUp Faciliites</t>
+  </si>
+  <si>
+    <t>Warehouse Coverage</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -358,13 +364,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +455,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -765,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
-  <dimension ref="A1:AV145"/>
+  <dimension ref="A1:AV184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6765,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <f t="shared" ref="R111:R124" si="5">SUM(B111:Q111)</f>
+        <f t="shared" ref="R111:R123" si="5">SUM(B111:Q111)</f>
         <v>1</v>
       </c>
       <c r="W111" s="3"/>
@@ -7592,53 +7633,2199 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="3"/>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="32">
+        <v>160001</v>
+      </c>
+      <c r="C129" s="32">
+        <v>160003</v>
+      </c>
+      <c r="D129" s="2">
+        <v>160005</v>
+      </c>
+      <c r="E129" s="32">
+        <v>160008</v>
+      </c>
+      <c r="F129" s="2">
+        <v>160010</v>
+      </c>
+      <c r="G129" s="2">
+        <v>160011</v>
+      </c>
+      <c r="H129" s="2">
+        <v>160015</v>
+      </c>
+      <c r="I129" s="2">
+        <v>160018</v>
+      </c>
+      <c r="J129" s="32">
+        <v>160019</v>
+      </c>
+      <c r="K129" s="32">
+        <v>160020</v>
+      </c>
+      <c r="L129" s="2">
+        <v>160021</v>
+      </c>
+      <c r="M129" s="32">
+        <v>160024</v>
+      </c>
+      <c r="N129" s="32">
+        <v>160025</v>
+      </c>
+      <c r="O129" s="32">
+        <v>160029</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>160002</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3">
+        <v>0</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f>IF(SUM(B130:O130)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>160004</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
+      </c>
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0</v>
+      </c>
+      <c r="N131" s="3">
+        <v>0</v>
+      </c>
+      <c r="O131" s="3">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f>IF(SUM(B131:O131)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>160006</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0</v>
+      </c>
+      <c r="N132" s="3">
+        <v>0</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f>IF(SUM(B132:O132)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>160007</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
+      </c>
+      <c r="L133" s="3">
+        <v>0</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0</v>
+      </c>
+      <c r="N133" s="3">
+        <v>0</v>
+      </c>
+      <c r="O133" s="3">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <f>IF(SUM(B133:O133)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q133" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>160009</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="L134" s="3">
+        <v>0</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0</v>
+      </c>
+      <c r="N134" s="3">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f>IF(SUM(B134:O134)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>160012</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <v>0</v>
+      </c>
+      <c r="O135" s="3">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f>IF(SUM(B135:O135)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>160013</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="3">
+        <v>0</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0</v>
+      </c>
+      <c r="N136" s="3">
+        <v>0</v>
+      </c>
+      <c r="O136" s="3">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f>IF(SUM(B136:O136)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>160014</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0</v>
+      </c>
+      <c r="N137" s="3">
+        <v>0</v>
+      </c>
+      <c r="O137" s="3">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f>IF(SUM(B137:O137)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>160016</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="L138" s="3">
+        <v>0</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0</v>
+      </c>
+      <c r="N138" s="3">
+        <v>0</v>
+      </c>
+      <c r="O138" s="3">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f>IF(SUM(B138:O138)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>160017</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>1</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1</v>
+      </c>
+      <c r="L139" s="3">
+        <v>0</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3">
+        <v>1</v>
+      </c>
+      <c r="O139" s="3">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f>IF(SUM(B139:O139)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q139" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>160022</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0</v>
+      </c>
+      <c r="O140" s="3">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f>IF(SUM(B140:O140)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>160023</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f>IF(SUM(B141:O141)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>160026</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0</v>
+      </c>
+      <c r="O142" s="3">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f>IF(SUM(B142:O142)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>160027</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0</v>
+      </c>
+      <c r="N143" s="3">
+        <v>0</v>
+      </c>
+      <c r="O143" s="3">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f>IF(SUM(B143:O143)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>160028</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3">
+        <v>0</v>
+      </c>
+      <c r="M144" s="3">
+        <v>1</v>
+      </c>
+      <c r="N144" s="3">
+        <v>0</v>
+      </c>
+      <c r="O144" s="3">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <f>IF(SUM(B144:O144)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q144" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>160030</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f>IF(SUM(B145:O145)&gt;=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="5">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146">
+        <f>SUM(B130:B145)</f>
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <f>SUM(C130:C145)</f>
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <f>SUM(D130:D145)</f>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f>SUM(E130:E145)</f>
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f>SUM(F130:F145)</f>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f>SUM(G130:G145)</f>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f>SUM(H130:H145)</f>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f>SUM(I130:I145)</f>
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f>SUM(J130:J145)</f>
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <f>SUM(K130:K145)</f>
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <f>SUM(L130:L145)</f>
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f>SUM(M130:M145)</f>
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <f>SUM(N130:N145)</f>
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <f>SUM(O130:O145)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="32">
+        <v>160001</v>
+      </c>
+      <c r="C148" s="32">
+        <v>160003</v>
+      </c>
+      <c r="D148" s="2">
+        <v>160005</v>
+      </c>
+      <c r="E148" s="32">
+        <v>160008</v>
+      </c>
+      <c r="F148" s="2">
+        <v>160010</v>
+      </c>
+      <c r="G148" s="2">
+        <v>160011</v>
+      </c>
+      <c r="H148" s="2">
+        <v>160015</v>
+      </c>
+      <c r="I148" s="2">
+        <v>160018</v>
+      </c>
+      <c r="J148" s="32">
+        <v>160019</v>
+      </c>
+      <c r="K148" s="32">
+        <v>160020</v>
+      </c>
+      <c r="L148" s="2">
+        <v>160021</v>
+      </c>
+      <c r="M148" s="32">
+        <v>160024</v>
+      </c>
+      <c r="N148" s="32">
+        <v>160025</v>
+      </c>
+      <c r="O148" s="32">
+        <v>160029</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>160002</v>
+      </c>
+      <c r="B149" s="3" t="b">
+        <f>IF(B130=1, B$148, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="3" t="b">
+        <f t="shared" ref="C149:O149" si="7">IF(C130=1, C$148, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="3" t="str" cm="1">
+        <f t="array" ref="P149">_xlfn.TEXTJOIN(", ", TRUE, IF(B149:O149&lt;&gt;FALSE, B149:O149, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>160004</v>
+      </c>
+      <c r="B150" s="3" t="b">
+        <f t="shared" ref="B150:O164" si="8">IF(B131=1, B$148, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O150" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="3" t="str" cm="1">
+        <f t="array" ref="P150">_xlfn.TEXTJOIN(", ", TRUE, IF(B150:O150&lt;&gt;FALSE, B150:O150, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>160006</v>
+      </c>
+      <c r="B151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O151" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P151" s="3" t="str" cm="1">
+        <f t="array" ref="P151">_xlfn.TEXTJOIN(", ", TRUE, IF(B151:O151&lt;&gt;FALSE, B151:O151, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>160007</v>
+      </c>
+      <c r="B152" s="3">
+        <f t="shared" si="8"/>
+        <v>160001</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="8"/>
+        <v>160003</v>
+      </c>
+      <c r="D152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P152" s="3" t="str" cm="1">
+        <f t="array" ref="P152">_xlfn.TEXTJOIN(", ", TRUE, IF(B152:O152&lt;&gt;FALSE, B152:O152, ""))</f>
+        <v>160001, 160003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>160009</v>
+      </c>
+      <c r="B153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P153" s="3" t="str" cm="1">
+        <f t="array" ref="P153">_xlfn.TEXTJOIN(", ", TRUE, IF(B153:O153&lt;&gt;FALSE, B153:O153, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>160012</v>
+      </c>
+      <c r="B154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P154" s="3" t="str" cm="1">
+        <f t="array" ref="P154">_xlfn.TEXTJOIN(", ", TRUE, IF(B154:O154&lt;&gt;FALSE, B154:O154, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>160013</v>
+      </c>
+      <c r="B155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P155" s="3" t="str" cm="1">
+        <f t="array" ref="P155">_xlfn.TEXTJOIN(", ", TRUE, IF(B155:O155&lt;&gt;FALSE, B155:O155, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>160014</v>
+      </c>
+      <c r="B156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P156" s="3" t="str" cm="1">
+        <f t="array" ref="P156">_xlfn.TEXTJOIN(", ", TRUE, IF(B156:O156&lt;&gt;FALSE, B156:O156, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>160016</v>
+      </c>
+      <c r="B157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P157" s="3" t="str" cm="1">
+        <f t="array" ref="P157">_xlfn.TEXTJOIN(", ", TRUE, IF(B157:O157&lt;&gt;FALSE, B157:O157, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>160017</v>
+      </c>
+      <c r="B158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <f t="shared" si="8"/>
+        <v>160019</v>
+      </c>
+      <c r="K158" s="3">
+        <f t="shared" si="8"/>
+        <v>160020</v>
+      </c>
+      <c r="L158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="3">
+        <f t="shared" si="8"/>
+        <v>160025</v>
+      </c>
+      <c r="O158" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P158" s="3" t="str" cm="1">
+        <f t="array" ref="P158">_xlfn.TEXTJOIN(", ", TRUE, IF(B158:O158&lt;&gt;FALSE, B158:O158, ""))</f>
+        <v>160019, 160020, 160025</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>160022</v>
+      </c>
+      <c r="B159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P159" s="3" t="str" cm="1">
+        <f t="array" ref="P159">_xlfn.TEXTJOIN(", ", TRUE, IF(B159:O159&lt;&gt;FALSE, B159:O159, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>160023</v>
+      </c>
+      <c r="B160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P160" s="3" t="str" cm="1">
+        <f t="array" ref="P160">_xlfn.TEXTJOIN(", ", TRUE, IF(B160:O160&lt;&gt;FALSE, B160:O160, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>160026</v>
+      </c>
+      <c r="B161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P161" s="3" t="str" cm="1">
+        <f t="array" ref="P161">_xlfn.TEXTJOIN(", ", TRUE, IF(B161:O161&lt;&gt;FALSE, B161:O161, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>160027</v>
+      </c>
+      <c r="B162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O162" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="3" t="str" cm="1">
+        <f t="array" ref="P162">_xlfn.TEXTJOIN(", ", TRUE, IF(B162:O162&lt;&gt;FALSE, B162:O162, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>160028</v>
+      </c>
+      <c r="B163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <f t="shared" si="8"/>
+        <v>160008</v>
+      </c>
+      <c r="F163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M163" s="3">
+        <f t="shared" si="8"/>
+        <v>160024</v>
+      </c>
+      <c r="N163" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O163" s="3">
+        <f t="shared" si="8"/>
+        <v>160029</v>
+      </c>
+      <c r="P163" s="3" t="str" cm="1">
+        <f t="array" ref="P163">_xlfn.TEXTJOIN(", ", TRUE, IF(B163:O163&lt;&gt;FALSE, B163:O163, ""))</f>
+        <v>160008, 160024, 160029</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>160030</v>
+      </c>
+      <c r="B164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="3" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P164" s="3" t="str" cm="1">
+        <f t="array" ref="P164">_xlfn.TEXTJOIN(", ", TRUE, IF(B164:O164&lt;&gt;FALSE, B164:O164, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165">
+        <f>SUM(B149:B164)</f>
+        <v>160001</v>
+      </c>
+      <c r="C165">
+        <f>SUM(C149:C164)</f>
+        <v>160003</v>
+      </c>
+      <c r="D165">
+        <f>SUM(D149:D164)</f>
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <f>SUM(E149:E164)</f>
+        <v>160008</v>
+      </c>
+      <c r="F165">
+        <f>SUM(F149:F164)</f>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f>SUM(G149:G164)</f>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f>SUM(H149:H164)</f>
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <f>SUM(I149:I164)</f>
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <f>SUM(J149:J164)</f>
+        <v>160019</v>
+      </c>
+      <c r="K165">
+        <f>SUM(K149:K164)</f>
+        <v>160020</v>
+      </c>
+      <c r="L165">
+        <f>SUM(L149:L164)</f>
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <f>SUM(M149:M164)</f>
+        <v>160024</v>
+      </c>
+      <c r="N165">
+        <f>SUM(N149:N164)</f>
+        <v>160025</v>
+      </c>
+      <c r="O165">
+        <f>SUM(O149:O164)</f>
+        <v>160029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169" s="37">
+        <v>160007</v>
+      </c>
+      <c r="B169" s="34" t="str">
+        <f>P152</f>
+        <v>160001, 160003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170" s="38">
+        <v>160017</v>
+      </c>
+      <c r="B170" s="35" t="str">
+        <f>P158</f>
+        <v>160019, 160020, 160025</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="39">
+        <v>160028</v>
+      </c>
+      <c r="B171" s="36" t="str">
+        <f>P163</f>
+        <v>160008, 160024, 160029</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="33">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_quality_check/final_cost_calculation.xlsx
+++ b/data_quality_check/final_cost_calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/data_quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3CD9B3-FDB2-5A47-A6D8-8A4860FAF268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC407273-7E5D-5A46-B9CF-626DEE058A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36020" yWindow="0" windowWidth="24020" windowHeight="15660" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
+    <workbookView xWindow="3280" yWindow="1920" windowWidth="24020" windowHeight="15660" xr2:uid="{8C8E9BC9-63C0-8A4F-B4AE-96D6474FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opening Costs - Main Warehouses" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,12 +456,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFAAD3-5068-8B42-B585-36A355612D01}">
   <dimension ref="A1:AV184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6520,7 +6519,7 @@
         <v>205550</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <v>160008</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>160029</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="P130">
-        <f>IF(SUM(B130:O130)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="P130:P145" si="7">IF(SUM(B130:O130)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q130" s="5">
@@ -7782,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <f>IF(SUM(B131:O131)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q131" s="5">
@@ -7836,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <f>IF(SUM(B132:O132)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q132" s="5">
@@ -7890,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <f>IF(SUM(B133:O133)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q133" s="5">
@@ -7944,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <f>IF(SUM(B134:O134)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q134" s="5">
@@ -7998,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="P135">
-        <f>IF(SUM(B135:O135)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q135" s="5">
@@ -8052,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="P136">
-        <f>IF(SUM(B136:O136)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q136" s="5">
@@ -8106,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="P137">
-        <f>IF(SUM(B137:O137)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q137" s="5">
@@ -8160,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <f>IF(SUM(B138:O138)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q138" s="5">
@@ -8214,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <f>IF(SUM(B139:O139)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q139" s="5">
@@ -8268,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <f>IF(SUM(B140:O140)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q140" s="5">
@@ -8322,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <f>IF(SUM(B141:O141)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q141" s="5">
@@ -8376,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <f>IF(SUM(B142:O142)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q142" s="5">
@@ -8430,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <f>IF(SUM(B143:O143)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q143" s="5">
@@ -8484,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="P144">
-        <f>IF(SUM(B144:O144)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q144" s="5">
@@ -8538,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <f>IF(SUM(B145:O145)&gt;=1, 1, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q145" s="5">
@@ -8550,59 +8549,59 @@
         <v>54</v>
       </c>
       <c r="B146">
-        <f>SUM(B130:B145)</f>
+        <f t="shared" ref="B146:O146" si="8">SUM(B130:B145)</f>
         <v>1</v>
       </c>
       <c r="C146">
-        <f>SUM(C130:C145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D146">
-        <f>SUM(D130:D145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f>SUM(E130:E145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F146">
-        <f>SUM(F130:F145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f>SUM(G130:G145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f>SUM(H130:H145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I146">
-        <f>SUM(I130:I145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f>SUM(J130:J145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K146">
-        <f>SUM(K130:K145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L146">
-        <f>SUM(L130:L145)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M146">
-        <f>SUM(M130:M145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N146">
-        <f>SUM(N130:N145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O146">
-        <f>SUM(O130:O145)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8660,55 +8659,55 @@
         <v>0</v>
       </c>
       <c r="C149" s="3" t="b">
-        <f t="shared" ref="C149:O149" si="7">IF(C130=1, C$148, FALSE)</f>
+        <f t="shared" ref="C149:O149" si="9">IF(C130=1, C$148, FALSE)</f>
         <v>0</v>
       </c>
       <c r="D149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O149" s="3" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P149" s="3" t="str" cm="1">
@@ -8721,59 +8720,59 @@
         <v>160004</v>
       </c>
       <c r="B150" s="3" t="b">
-        <f t="shared" ref="B150:O164" si="8">IF(B131=1, B$148, FALSE)</f>
+        <f t="shared" ref="B150:O164" si="10">IF(B131=1, B$148, FALSE)</f>
         <v>0</v>
       </c>
       <c r="C150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O150" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P150" s="3" t="str" cm="1">
@@ -8786,59 +8785,59 @@
         <v>160006</v>
       </c>
       <c r="B151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O151" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P151" s="3" t="str" cm="1">
@@ -8851,59 +8850,59 @@
         <v>160007</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160001</v>
       </c>
       <c r="C152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160003</v>
       </c>
       <c r="D152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O152" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P152" s="3" t="str" cm="1">
@@ -8916,59 +8915,59 @@
         <v>160009</v>
       </c>
       <c r="B153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O153" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P153" s="3" t="str" cm="1">
@@ -8981,59 +8980,59 @@
         <v>160012</v>
       </c>
       <c r="B154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O154" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P154" s="3" t="str" cm="1">
@@ -9046,59 +9045,59 @@
         <v>160013</v>
       </c>
       <c r="B155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O155" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P155" s="3" t="str" cm="1">
@@ -9111,59 +9110,59 @@
         <v>160014</v>
       </c>
       <c r="B156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O156" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P156" s="3" t="str" cm="1">
@@ -9176,59 +9175,59 @@
         <v>160016</v>
       </c>
       <c r="B157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O157" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P157" s="3" t="str" cm="1">
@@ -9241,59 +9240,59 @@
         <v>160017</v>
       </c>
       <c r="B158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160019</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160020</v>
       </c>
       <c r="L158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160025</v>
       </c>
       <c r="O158" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P158" s="3" t="str" cm="1">
@@ -9306,59 +9305,59 @@
         <v>160022</v>
       </c>
       <c r="B159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O159" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P159" s="3" t="str" cm="1">
@@ -9371,59 +9370,59 @@
         <v>160023</v>
       </c>
       <c r="B160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O160" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P160" s="3" t="str" cm="1">
@@ -9436,59 +9435,59 @@
         <v>160026</v>
       </c>
       <c r="B161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O161" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P161" s="3" t="str" cm="1">
@@ -9501,59 +9500,59 @@
         <v>160027</v>
       </c>
       <c r="B162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O162" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P162" s="3" t="str" cm="1">
@@ -9566,59 +9565,59 @@
         <v>160028</v>
       </c>
       <c r="B163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160008</v>
       </c>
       <c r="F163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160024</v>
       </c>
       <c r="N163" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160029</v>
       </c>
       <c r="P163" s="3" t="str" cm="1">
@@ -9631,59 +9630,59 @@
         <v>160030</v>
       </c>
       <c r="B164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O164" s="3" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P164" s="3" t="str" cm="1">
@@ -9696,59 +9695,59 @@
         <v>54</v>
       </c>
       <c r="B165">
-        <f>SUM(B149:B164)</f>
+        <f t="shared" ref="B165:O165" si="11">SUM(B149:B164)</f>
         <v>160001</v>
       </c>
       <c r="C165">
-        <f>SUM(C149:C164)</f>
+        <f t="shared" si="11"/>
         <v>160003</v>
       </c>
       <c r="D165">
-        <f>SUM(D149:D164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f>SUM(E149:E164)</f>
+        <f t="shared" si="11"/>
         <v>160008</v>
       </c>
       <c r="F165">
-        <f>SUM(F149:F164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G165">
-        <f>SUM(G149:G164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H165">
-        <f>SUM(H149:H164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I165">
-        <f>SUM(I149:I164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J165">
-        <f>SUM(J149:J164)</f>
+        <f t="shared" si="11"/>
         <v>160019</v>
       </c>
       <c r="K165">
-        <f>SUM(K149:K164)</f>
+        <f t="shared" si="11"/>
         <v>160020</v>
       </c>
       <c r="L165">
-        <f>SUM(L149:L164)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M165">
-        <f>SUM(M149:M164)</f>
+        <f t="shared" si="11"/>
         <v>160024</v>
       </c>
       <c r="N165">
-        <f>SUM(N149:N164)</f>
+        <f t="shared" si="11"/>
         <v>160025</v>
       </c>
       <c r="O165">
-        <f>SUM(O149:O164)</f>
+        <f t="shared" si="11"/>
         <v>160029</v>
       </c>
     </row>
@@ -9758,15 +9757,15 @@
       </c>
     </row>
     <row r="168" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40" t="s">
+      <c r="A168" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B168" s="40" t="s">
+      <c r="B168" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="37">
+      <c r="A169" s="36">
         <v>160007</v>
       </c>
       <c r="B169" s="34" t="str">
@@ -9775,19 +9774,19 @@
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="38">
+      <c r="A170" s="37">
         <v>160017</v>
       </c>
-      <c r="B170" s="35" t="str">
+      <c r="B170" s="19" t="str">
         <f>P158</f>
         <v>160019, 160020, 160025</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="39">
+      <c r="A171" s="38">
         <v>160028</v>
       </c>
-      <c r="B171" s="36" t="str">
+      <c r="B171" s="35" t="str">
         <f>P163</f>
         <v>160008, 160024, 160029</v>
       </c>
